--- a/data/trans_orig/iP18_E_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP18_E_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E40984F-0C27-45AF-BA11-ECA195300310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC5BAA32-0906-49A3-9AC3-4E72BCA974D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C7316D13-5B6B-4566-93BA-C514D1FDBB3D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F88D4A9F-723D-4EED-BB1C-6438BBDE92EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,105 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>6,56%</t>
   </si>
   <si>
@@ -101,9 +194,6 @@
     <t>8,62%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>93,44%</t>
   </si>
   <si>
@@ -131,64 +221,61 @@
     <t>95,38%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -242,93 +329,6 @@
     <t>94,57%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
     <t>5,45%</t>
   </si>
   <si>
@@ -380,6 +380,78 @@
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
   </si>
   <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
     <t>6,06%</t>
   </si>
   <si>
@@ -428,46 +500,58 @@
     <t>97,42%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>6,08%</t>
@@ -524,90 +608,6 @@
     <t>95,73%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
     <t>5,34%</t>
   </si>
   <si>
@@ -665,6 +665,90 @@
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2015 (Tasa respuesta: 90,78%)</t>
   </si>
   <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
     <t>2,45%</t>
   </si>
   <si>
@@ -707,52 +791,52 @@
     <t>93,23%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>10,13%</t>
@@ -791,90 +875,6 @@
     <t>89,4%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
     <t>5,89%</t>
   </si>
   <si>
@@ -920,6 +920,60 @@
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
     <t>4,84%</t>
   </si>
   <si>
@@ -962,40 +1016,52 @@
     <t>87,04%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>9,14%</t>
@@ -1050,72 +1116,6 @@
   </si>
   <si>
     <t>92,72%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
   </si>
   <si>
     <t>10,52%</t>
@@ -1549,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14D9071-3C6C-45CC-80A4-FF4523054DAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2399D76C-8AC7-4EC5-8BD0-A0E950998B2D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1667,10 +1667,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>11619</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1682,85 +1682,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>9660</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>34</v>
-      </c>
-      <c r="N4" s="7">
-        <v>21279</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7">
+        <v>22186</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19504</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>252</v>
-      </c>
-      <c r="D5" s="7">
-        <v>165616</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>54</v>
+      </c>
+      <c r="N5" s="7">
+        <v>41690</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>242</v>
-      </c>
-      <c r="I5" s="7">
-        <v>151234</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>494</v>
-      </c>
-      <c r="N5" s="7">
-        <v>316849</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,54 +1769,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>177235</v>
+        <v>22186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>160894</v>
+        <v>19504</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>528</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>338128</v>
+        <v>41690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1828,13 +1828,13 @@
         <v>7519</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -1843,13 +1843,13 @@
         <v>4166</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -1858,19 +1858,19 @@
         <v>11685</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>148</v>
@@ -1879,13 +1879,13 @@
         <v>97271</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>136</v>
@@ -1894,13 +1894,13 @@
         <v>91159</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>284</v>
@@ -1909,13 +1909,13 @@
         <v>188430</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1930,13 @@
         <v>104790</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -1945,13 +1945,13 @@
         <v>95325</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>300</v>
@@ -1960,117 +1960,117 @@
         <v>200115</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>13155</v>
+        <v>11619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>13337</v>
+        <v>9660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>26492</v>
+        <v>21279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D11" s="7">
-        <v>164667</v>
+        <v>165616</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7">
+        <v>242</v>
+      </c>
+      <c r="I11" s="7">
+        <v>151234</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="7">
+        <v>494</v>
+      </c>
+      <c r="N11" s="7">
+        <v>316849</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>233</v>
-      </c>
-      <c r="I11" s="7">
-        <v>178219</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="7">
-        <v>477</v>
-      </c>
-      <c r="N11" s="7">
-        <v>342886</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,153 +2079,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D12" s="7">
-        <v>177822</v>
+        <v>177235</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="I12" s="7">
-        <v>191556</v>
+        <v>160894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="N12" s="7">
-        <v>369378</v>
+        <v>338128</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>10398</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10732</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="7">
+        <v>34</v>
+      </c>
+      <c r="N13" s="7">
+        <v>21130</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="D14" s="7">
-        <v>22186</v>
+        <v>120895</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="I14" s="7">
-        <v>19504</v>
+        <v>110971</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M14" s="7">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="N14" s="7">
-        <v>41690</v>
+        <v>231865</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,147 +2234,147 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="D15" s="7">
-        <v>22186</v>
+        <v>131293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="I15" s="7">
-        <v>19504</v>
+        <v>121703</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>405</v>
       </c>
       <c r="N15" s="7">
-        <v>41690</v>
+        <v>252995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>10398</v>
+        <v>13155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>10732</v>
+        <v>13337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>21130</v>
+        <v>26492</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="D17" s="7">
-        <v>120895</v>
+        <v>164667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="I17" s="7">
-        <v>110971</v>
+        <v>178219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="N17" s="7">
-        <v>231865</v>
+        <v>342886</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>94</v>
@@ -2389,49 +2389,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="D18" s="7">
-        <v>131293</v>
+        <v>177822</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="I18" s="7">
-        <v>121703</v>
+        <v>191556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>405</v>
+        <v>514</v>
       </c>
       <c r="N18" s="7">
-        <v>252995</v>
+        <v>369378</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,7 +2448,7 @@
         <v>42691</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>96</v>
@@ -2490,7 +2490,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>860</v>
@@ -2499,7 +2499,7 @@
         <v>570635</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>104</v>
@@ -2550,13 +2550,13 @@
         <v>613326</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>878</v>
@@ -2565,13 +2565,13 @@
         <v>588981</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1801</v>
@@ -2580,13 +2580,13 @@
         <v>1202307</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2607,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18881A90-BF09-47FB-9A33-DF7AAB3AE180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96630B8-86AD-41FA-B852-ABCCBDE45F48}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2725,100 +2725,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>12541</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1849</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3952</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1849</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="7">
-        <v>24</v>
-      </c>
-      <c r="N4" s="7">
-        <v>16493</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>194412</v>
+        <v>24454</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19654</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7">
+        <v>50</v>
+      </c>
+      <c r="N5" s="7">
+        <v>44108</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="7">
-        <v>292</v>
-      </c>
-      <c r="I5" s="7">
-        <v>188695</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" s="7">
-        <v>573</v>
-      </c>
-      <c r="N5" s="7">
-        <v>383107</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,54 +2827,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>299</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>206953</v>
+        <v>24454</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>192647</v>
+        <v>21503</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>597</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>399600</v>
+        <v>45957</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2886,10 +2886,10 @@
         <v>2138</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>96</v>
@@ -2901,13 +2901,13 @@
         <v>6739</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -2916,19 +2916,19 @@
         <v>8877</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>169</v>
@@ -2937,13 +2937,13 @@
         <v>119669</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -2952,13 +2952,13 @@
         <v>102623</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>312</v>
@@ -2967,13 +2967,13 @@
         <v>222292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +2988,13 @@
         <v>121807</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>152</v>
@@ -3003,13 +3003,13 @@
         <v>109362</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>324</v>
@@ -3018,117 +3018,117 @@
         <v>231169</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>12308</v>
+        <v>12541</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3952</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="7">
+        <v>24</v>
+      </c>
+      <c r="N10" s="7">
+        <v>16493</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7">
-        <v>12756</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M10" s="7">
-        <v>34</v>
-      </c>
-      <c r="N10" s="7">
-        <v>25064</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="D11" s="7">
-        <v>190146</v>
+        <v>194412</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="7">
+        <v>292</v>
+      </c>
+      <c r="I11" s="7">
+        <v>188695</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M11" s="7">
+        <v>573</v>
+      </c>
+      <c r="N11" s="7">
+        <v>383107</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="7">
-        <v>245</v>
-      </c>
-      <c r="I11" s="7">
-        <v>187146</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11" s="7">
-        <v>503</v>
-      </c>
-      <c r="N11" s="7">
-        <v>377292</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,153 +3137,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="D12" s="7">
-        <v>202454</v>
+        <v>206953</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="I12" s="7">
-        <v>199902</v>
+        <v>192647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="N12" s="7">
-        <v>402356</v>
+        <v>399600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>11013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="7">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9902</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="7">
+        <v>33</v>
+      </c>
+      <c r="N13" s="7">
+        <v>20914</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1849</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1849</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="D14" s="7">
-        <v>24454</v>
+        <v>145119</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="7">
+        <v>206</v>
+      </c>
+      <c r="I14" s="7">
+        <v>132698</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="7">
-        <v>23</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19654</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>428</v>
+      </c>
+      <c r="N14" s="7">
+        <v>277818</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="7">
-        <v>50</v>
-      </c>
-      <c r="N14" s="7">
-        <v>44108</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,54 +3292,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7">
-        <v>24454</v>
+        <v>156132</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>21503</v>
+        <v>142600</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>45957</v>
+        <v>298732</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3348,7 +3348,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>11013</v>
+        <v>12308</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>171</v>
@@ -3360,10 +3360,10 @@
         <v>173</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>9902</v>
+        <v>12756</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>174</v>
@@ -3375,10 +3375,10 @@
         <v>176</v>
       </c>
       <c r="M16" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N16" s="7">
-        <v>20914</v>
+        <v>25064</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>177</v>
@@ -3393,13 +3393,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="D17" s="7">
-        <v>145119</v>
+        <v>190146</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>180</v>
@@ -3411,10 +3411,10 @@
         <v>182</v>
       </c>
       <c r="H17" s="7">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="I17" s="7">
-        <v>132698</v>
+        <v>187146</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>183</v>
@@ -3426,10 +3426,10 @@
         <v>185</v>
       </c>
       <c r="M17" s="7">
-        <v>428</v>
+        <v>503</v>
       </c>
       <c r="N17" s="7">
-        <v>277818</v>
+        <v>377292</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>186</v>
@@ -3447,49 +3447,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="D18" s="7">
-        <v>156132</v>
+        <v>202454</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="I18" s="7">
-        <v>142600</v>
+        <v>199902</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="N18" s="7">
-        <v>298732</v>
+        <v>402356</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,7 +3548,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>957</v>
@@ -3608,13 +3608,13 @@
         <v>711800</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>959</v>
@@ -3623,13 +3623,13 @@
         <v>666014</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1971</v>
@@ -3638,13 +3638,13 @@
         <v>1377814</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3665,7 +3665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEDDF5B-4A35-445E-94B1-E785CF8419FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B52660B-A720-4916-8F1E-947CF687D7AB}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3783,100 +3783,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>8920</v>
+        <v>1072</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1036</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="7">
-        <v>17</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10863</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2107</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="7">
-        <v>31</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19783</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>295</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>199554</v>
+        <v>24502</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19811</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H5" s="7">
-        <v>295</v>
-      </c>
-      <c r="I5" s="7">
-        <v>183010</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7">
+        <v>49</v>
+      </c>
+      <c r="N5" s="7">
+        <v>44314</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="M5" s="7">
-        <v>590</v>
-      </c>
-      <c r="N5" s="7">
-        <v>382564</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,54 +3885,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>208474</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>193873</v>
+        <v>20847</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>621</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>402347</v>
+        <v>46421</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3947,10 +3947,10 @@
         <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3959,13 +3959,13 @@
         <v>6848</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3974,19 +3974,19 @@
         <v>11247</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>139</v>
@@ -3998,10 +3998,10 @@
         <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -4010,13 +4010,13 @@
         <v>94987</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>278</v>
@@ -4025,13 +4025,13 @@
         <v>198081</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4046,13 @@
         <v>107493</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>149</v>
@@ -4061,13 +4061,13 @@
         <v>101835</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>294</v>
@@ -4076,117 +4076,117 @@
         <v>209328</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>18397</v>
+        <v>8920</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="7">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10863</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="7">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7">
-        <v>12290</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>31</v>
+      </c>
+      <c r="N10" s="7">
+        <v>19783</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="M10" s="7">
-        <v>44</v>
-      </c>
-      <c r="N10" s="7">
-        <v>30687</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="D11" s="7">
-        <v>163177</v>
+        <v>199554</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>295</v>
+      </c>
+      <c r="I11" s="7">
+        <v>183010</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H11" s="7">
-        <v>243</v>
-      </c>
-      <c r="I11" s="7">
-        <v>180358</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>590</v>
+      </c>
+      <c r="N11" s="7">
+        <v>382564</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="M11" s="7">
-        <v>472</v>
-      </c>
-      <c r="N11" s="7">
-        <v>343535</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,153 +4195,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="D12" s="7">
-        <v>181574</v>
+        <v>208474</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>192648</v>
+        <v>193873</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>516</v>
+        <v>621</v>
       </c>
       <c r="N12" s="7">
-        <v>374222</v>
+        <v>402347</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>1072</v>
+        <v>6612</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>1036</v>
+        <v>7442</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>2107</v>
+        <v>14054</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="D14" s="7">
-        <v>24502</v>
+        <v>139333</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="I14" s="7">
-        <v>19811</v>
+        <v>130168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
-        <v>49</v>
+        <v>422</v>
       </c>
       <c r="N14" s="7">
-        <v>44314</v>
+        <v>269501</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,153 +4350,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>145945</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="I15" s="7">
-        <v>20847</v>
+        <v>137610</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>447</v>
       </c>
       <c r="N15" s="7">
-        <v>46421</v>
+        <v>283555</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>6612</v>
+        <v>18397</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>7442</v>
+        <v>12290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N16" s="7">
-        <v>14054</v>
+        <v>30687</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D17" s="7">
-        <v>139333</v>
+        <v>163177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="I17" s="7">
-        <v>130168</v>
+        <v>180358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="N17" s="7">
-        <v>269501</v>
+        <v>343535</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>275</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>277</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,49 +4505,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="D18" s="7">
-        <v>145945</v>
+        <v>181574</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="I18" s="7">
-        <v>137610</v>
+        <v>192648</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="N18" s="7">
-        <v>283555</v>
+        <v>374222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,7 +4582,7 @@
         <v>281</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>282</v>
@@ -4600,13 +4600,13 @@
         <v>284</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>896</v>
@@ -4636,7 +4636,7 @@
         <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>1811</v>
@@ -4648,7 +4648,7 @@
         <v>290</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>291</v>
@@ -4666,13 +4666,13 @@
         <v>669060</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>974</v>
@@ -4681,13 +4681,13 @@
         <v>646814</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1930</v>
@@ -4696,13 +4696,13 @@
         <v>1315873</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +4723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5FB10B-FB18-4CDF-B461-C039F5F9CEC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BD2D3C-6795-4DB4-8E4A-CC37917F0261}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4841,100 +4841,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2353</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2762</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M4" s="7">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7">
-        <v>5115</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>46265</v>
+        <v>4670</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>26333</v>
+        <v>4563</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>72598</v>
+        <v>9233</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,54 +4943,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>48618</v>
+        <v>4670</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>29095</v>
+        <v>4563</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>77713</v>
+        <v>9233</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5002,13 +5002,13 @@
         <v>539</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5017,13 +5017,13 @@
         <v>1098</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5032,19 +5032,19 @@
         <v>1638</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>26</v>
@@ -5053,13 +5053,13 @@
         <v>15346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -5068,13 +5068,13 @@
         <v>11239</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -5083,13 +5083,13 @@
         <v>26583</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5104,13 @@
         <v>15885</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -5119,13 +5119,13 @@
         <v>12337</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -5134,18 +5134,18 @@
         <v>28221</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5154,97 +5154,97 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>2505</v>
+        <v>2353</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>320</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>5157</v>
+        <v>2762</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>7661</v>
+        <v>5115</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7">
-        <v>24896</v>
+        <v>46265</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I11" s="7">
-        <v>23450</v>
+        <v>26333</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="N11" s="7">
-        <v>48347</v>
+        <v>72598</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,153 +5253,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>27401</v>
+        <v>48618</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I12" s="7">
-        <v>28607</v>
+        <v>29095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="N12" s="7">
-        <v>56008</v>
+        <v>77713</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>6305</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>328</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>8699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>4670</v>
+        <v>27457</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="7">
+        <v>30</v>
+      </c>
+      <c r="I14" s="7">
+        <v>19016</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="M14" s="7">
+        <v>67</v>
+      </c>
+      <c r="N14" s="7">
+        <v>46474</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4563</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="7">
-        <v>13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9233</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,129 +5408,129 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>4670</v>
+        <v>29852</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>4563</v>
+        <v>25321</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="N15" s="7">
-        <v>9233</v>
+        <v>55173</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2395</v>
+        <v>2505</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5157</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6305</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>12</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7661</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="M16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
-        <v>8699</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>27457</v>
+        <v>24896</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>19016</v>
+        <v>23450</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>353</v>
@@ -5542,10 +5542,10 @@
         <v>355</v>
       </c>
       <c r="M17" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N17" s="7">
-        <v>46474</v>
+        <v>48347</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>356</v>
@@ -5563,49 +5563,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
-        <v>29852</v>
+        <v>27401</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I18" s="7">
-        <v>25321</v>
+        <v>28607</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N18" s="7">
-        <v>55173</v>
+        <v>56008</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,10 +5622,10 @@
         <v>7791</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>359</v>
@@ -5664,7 +5664,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>176</v>
@@ -5673,13 +5673,13 @@
         <v>118634</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H20" s="7">
         <v>131</v>
@@ -5724,13 +5724,13 @@
         <v>126425</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -5739,13 +5739,13 @@
         <v>99923</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>341</v>
@@ -5754,13 +5754,13 @@
         <v>226348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP18_E_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP18_E_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC5BAA32-0906-49A3-9AC3-4E72BCA974D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BDA1963-633D-48EA-863A-B4A5336F891B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F88D4A9F-723D-4EED-BB1C-6438BBDE92EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1DA117C-CB46-422B-A707-24447D96F352}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="382">
   <si>
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
@@ -71,6 +71,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -89,837 +107,861 @@
     <t>3,48%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>12,44%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>4,05%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2015 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2015 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>7,55%</t>
+    <t>7,68%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
     <t>26,42%</t>
   </si>
   <si>
@@ -929,235 +971,220 @@
     <t>13,49%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>13,21%</t>
+    <t>1,65%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>21,34%</t>
   </si>
   <si>
     <t>6,58%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>21,8%</t>
+    <t>19,62%</t>
   </si>
   <si>
     <t>24,9%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1195,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1264,39 +1291,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1348,7 +1375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1459,13 +1486,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1474,6 +1494,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1538,19 +1565,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2399D76C-8AC7-4EC5-8BD0-A0E950998B2D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2DD9DD-A7CC-4561-AF24-D8F5140CFC9A}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1667,10 +1714,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>22186</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1682,34 +1729,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>19504</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>41690</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,10 +1765,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>22186</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1733,34 +1780,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>19504</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>41690</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1822,13 @@
         <v>22186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -1790,13 +1837,13 @@
         <v>19504</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -1805,13 +1852,13 @@
         <v>41690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,10 +1869,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="D7" s="7">
-        <v>7519</v>
+        <v>97271</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1834,37 +1881,37 @@
         <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <v>136</v>
+      </c>
+      <c r="I7" s="7">
+        <v>91159</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4166</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>284</v>
+      </c>
+      <c r="N7" s="7">
+        <v>188430</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="7">
-        <v>16</v>
-      </c>
-      <c r="N7" s="7">
-        <v>11685</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,49 +1920,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>97271</v>
+        <v>7519</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4166</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="7">
-        <v>136</v>
-      </c>
-      <c r="I8" s="7">
-        <v>91159</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>16</v>
+      </c>
+      <c r="N8" s="7">
+        <v>11685</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="7">
-        <v>284</v>
-      </c>
-      <c r="N8" s="7">
-        <v>188430</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1977,13 @@
         <v>104790</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -1945,13 +1992,13 @@
         <v>95325</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>300</v>
@@ -1960,66 +2007,66 @@
         <v>200115</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="D10" s="7">
-        <v>11619</v>
+        <v>165616</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>242</v>
+      </c>
+      <c r="I10" s="7">
+        <v>151234</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9660</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>494</v>
+      </c>
+      <c r="N10" s="7">
+        <v>316849</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="7">
-        <v>34</v>
-      </c>
-      <c r="N10" s="7">
-        <v>21279</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,49 +2075,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>165616</v>
+        <v>11619</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9660</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="7">
-        <v>242</v>
-      </c>
-      <c r="I11" s="7">
-        <v>151234</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>34</v>
+      </c>
+      <c r="N11" s="7">
+        <v>21279</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="7">
-        <v>494</v>
-      </c>
-      <c r="N11" s="7">
-        <v>316849</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2132,13 @@
         <v>177235</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>258</v>
@@ -2100,13 +2147,13 @@
         <v>160894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>528</v>
@@ -2115,66 +2162,66 @@
         <v>338128</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D13" s="7">
-        <v>10398</v>
+        <v>120895</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>184</v>
+      </c>
+      <c r="I13" s="7">
+        <v>110971</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="7">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10732</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>371</v>
+      </c>
+      <c r="N13" s="7">
+        <v>231865</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="7">
-        <v>34</v>
-      </c>
-      <c r="N13" s="7">
-        <v>21130</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,49 +2230,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>120895</v>
+        <v>10398</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10732</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="7">
-        <v>184</v>
-      </c>
-      <c r="I14" s="7">
-        <v>110971</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>34</v>
+      </c>
+      <c r="N14" s="7">
+        <v>21130</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="7">
-        <v>371</v>
-      </c>
-      <c r="N14" s="7">
-        <v>231865</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2287,13 @@
         <v>131293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>202</v>
@@ -2255,13 +2302,13 @@
         <v>121703</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>405</v>
@@ -2270,66 +2317,66 @@
         <v>252995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>244</v>
       </c>
       <c r="D16" s="7">
-        <v>13155</v>
+        <v>164667</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>233</v>
+      </c>
+      <c r="I16" s="7">
+        <v>178219</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="7">
-        <v>18</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13337</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="M16" s="7">
-        <v>37</v>
+        <v>477</v>
       </c>
       <c r="N16" s="7">
-        <v>26492</v>
+        <v>342886</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,49 +2385,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>164667</v>
+        <v>13155</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7">
+        <v>13337</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="7">
-        <v>233</v>
-      </c>
-      <c r="I17" s="7">
-        <v>178219</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>37</v>
+      </c>
+      <c r="N17" s="7">
+        <v>26492</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="M17" s="7">
-        <v>477</v>
-      </c>
-      <c r="N17" s="7">
-        <v>342886</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2442,13 @@
         <v>177822</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>251</v>
@@ -2410,13 +2457,13 @@
         <v>191556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>514</v>
@@ -2425,13 +2472,13 @@
         <v>369378</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,49 +2489,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>63</v>
+        <v>860</v>
       </c>
       <c r="D19" s="7">
-        <v>42691</v>
+        <v>570635</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="7">
+        <v>820</v>
+      </c>
+      <c r="I19" s="7">
+        <v>551087</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="7">
-        <v>58</v>
-      </c>
-      <c r="I19" s="7">
-        <v>37894</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>1680</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1121722</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M19" s="7">
-        <v>121</v>
-      </c>
-      <c r="N19" s="7">
-        <v>80585</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,49 +2540,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>860</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7">
-        <v>570635</v>
+        <v>42691</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="7">
+        <v>58</v>
+      </c>
+      <c r="I20" s="7">
+        <v>37894</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="7">
-        <v>820</v>
-      </c>
-      <c r="I20" s="7">
-        <v>551087</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>121</v>
+      </c>
+      <c r="N20" s="7">
+        <v>80585</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M20" s="7">
-        <v>1680</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1121722</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2597,13 @@
         <v>613326</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>878</v>
@@ -2565,13 +2612,13 @@
         <v>588981</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1801</v>
@@ -2580,13 +2627,18 @@
         <v>1202307</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2607,8 +2659,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96630B8-86AD-41FA-B852-ABCCBDE45F48}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA187D4-410B-4A73-BBC4-1705ED9707D0}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2624,7 +2676,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2725,49 +2777,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>24454</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19654</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1849</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>50</v>
+      </c>
+      <c r="N4" s="7">
+        <v>44108</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1849</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,49 +2828,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>24454</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1849</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>23</v>
-      </c>
-      <c r="I5" s="7">
-        <v>19654</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1849</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="7">
-        <v>50</v>
-      </c>
-      <c r="N5" s="7">
-        <v>44108</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2885,13 @@
         <v>24454</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -2848,13 +2900,13 @@
         <v>21503</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -2863,13 +2915,13 @@
         <v>45957</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,49 +2932,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="D7" s="7">
-        <v>2138</v>
+        <v>119669</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>143</v>
+      </c>
+      <c r="I7" s="7">
+        <v>102623</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="7">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6739</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>312</v>
+      </c>
+      <c r="N7" s="7">
+        <v>222292</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="7">
-        <v>12</v>
-      </c>
-      <c r="N7" s="7">
-        <v>8877</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,25 +2983,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>119669</v>
+        <v>2138</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>102623</v>
+        <v>6739</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>132</v>
@@ -2961,19 +3013,19 @@
         <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>222292</v>
+        <v>8877</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +3040,13 @@
         <v>121807</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>152</v>
@@ -3003,13 +3055,13 @@
         <v>109362</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>324</v>
@@ -3018,66 +3070,66 @@
         <v>231169</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="D10" s="7">
-        <v>12541</v>
+        <v>194412</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="I10" s="7">
-        <v>3952</v>
+        <v>188695</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>573</v>
       </c>
       <c r="N10" s="7">
-        <v>16493</v>
+        <v>383107</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,49 +3138,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>194412</v>
+        <v>12541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>188695</v>
+        <v>3952</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>573</v>
+        <v>24</v>
       </c>
       <c r="N11" s="7">
-        <v>383107</v>
+        <v>16493</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3195,13 @@
         <v>206953</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>298</v>
@@ -3158,13 +3210,13 @@
         <v>192647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>597</v>
@@ -3173,66 +3225,66 @@
         <v>399600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="D13" s="7">
-        <v>11013</v>
+        <v>145119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I13" s="7">
-        <v>9902</v>
+        <v>132698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>33</v>
+        <v>428</v>
       </c>
       <c r="N13" s="7">
-        <v>20914</v>
+        <v>277818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,49 +3293,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>145119</v>
+        <v>11013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>132698</v>
+        <v>9902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>428</v>
+        <v>33</v>
       </c>
       <c r="N14" s="7">
-        <v>277818</v>
+        <v>20914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3350,13 @@
         <v>156132</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>222</v>
@@ -3313,13 +3365,13 @@
         <v>142600</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -3328,66 +3380,66 @@
         <v>298732</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="D16" s="7">
-        <v>12308</v>
+        <v>190146</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="I16" s="7">
-        <v>12756</v>
+        <v>187146</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>503</v>
       </c>
       <c r="N16" s="7">
-        <v>25064</v>
+        <v>377292</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,49 +3448,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>190146</v>
+        <v>12308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>187146</v>
+        <v>12756</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>503</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>377292</v>
+        <v>25064</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3505,13 @@
         <v>202454</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>262</v>
@@ -3468,13 +3520,13 @@
         <v>199902</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>537</v>
@@ -3483,13 +3535,13 @@
         <v>402356</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,25 +3552,25 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>55</v>
+        <v>957</v>
       </c>
       <c r="D19" s="7">
-        <v>38000</v>
+        <v>673800</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="H19" s="7">
-        <v>50</v>
+        <v>909</v>
       </c>
       <c r="I19" s="7">
-        <v>35198</v>
+        <v>630816</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>192</v>
@@ -3527,22 +3579,22 @@
         <v>193</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1866</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1304616</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M19" s="7">
-        <v>105</v>
-      </c>
-      <c r="N19" s="7">
-        <v>73198</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,49 +3603,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>957</v>
+        <v>55</v>
       </c>
       <c r="D20" s="7">
-        <v>673800</v>
+        <v>38000</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>50</v>
+      </c>
+      <c r="I20" s="7">
+        <v>35198</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="7">
-        <v>909</v>
-      </c>
-      <c r="I20" s="7">
-        <v>630816</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>105</v>
+      </c>
+      <c r="N20" s="7">
+        <v>73198</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1866</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1304616</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3660,13 @@
         <v>711800</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>959</v>
@@ -3623,13 +3675,13 @@
         <v>666014</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1971</v>
@@ -3638,13 +3690,18 @@
         <v>1377814</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3665,8 +3722,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B52660B-A720-4916-8F1E-947CF687D7AB}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37302B20-D96C-4C5C-8597-57C826AB288C}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3682,7 +3739,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3783,49 +3840,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>1072</v>
+        <v>24502</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19811</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1036</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>49</v>
+      </c>
+      <c r="N4" s="7">
+        <v>44314</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M4" s="7">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2107</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,49 +3891,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>24502</v>
+        <v>1072</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1036</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7">
-        <v>19811</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2107</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="7">
-        <v>49</v>
-      </c>
-      <c r="N5" s="7">
-        <v>44314</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3948,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -3906,13 +3963,13 @@
         <v>20847</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -3921,13 +3978,13 @@
         <v>46421</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3995,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="D7" s="7">
-        <v>4399</v>
+        <v>103094</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>220</v>
@@ -3953,10 +4010,10 @@
         <v>221</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="I7" s="7">
-        <v>6848</v>
+        <v>94987</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>222</v>
@@ -3968,10 +4025,10 @@
         <v>224</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="N7" s="7">
-        <v>11247</v>
+        <v>198081</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>225</v>
@@ -3989,49 +4046,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>103094</v>
+        <v>4399</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>94987</v>
+        <v>6848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>198081</v>
+        <v>11247</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4103,13 @@
         <v>107493</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>149</v>
@@ -4061,13 +4118,13 @@
         <v>101835</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>294</v>
@@ -4076,66 +4133,66 @@
         <v>209328</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="D10" s="7">
-        <v>8920</v>
+        <v>199554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="I10" s="7">
-        <v>10863</v>
+        <v>183010</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
-        <v>31</v>
+        <v>590</v>
       </c>
       <c r="N10" s="7">
-        <v>19783</v>
+        <v>382564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,49 +4201,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>199554</v>
+        <v>8920</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
-        <v>295</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>183010</v>
+        <v>10863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
-        <v>590</v>
+        <v>31</v>
       </c>
       <c r="N11" s="7">
-        <v>382564</v>
+        <v>19783</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4258,13 @@
         <v>208474</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -4216,13 +4273,13 @@
         <v>193873</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>621</v>
@@ -4231,66 +4288,66 @@
         <v>402347</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="D13" s="7">
-        <v>6612</v>
+        <v>139333</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="I13" s="7">
-        <v>7442</v>
+        <v>130168</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
-        <v>25</v>
+        <v>422</v>
       </c>
       <c r="N13" s="7">
-        <v>14054</v>
+        <v>269501</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,49 +4356,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>139333</v>
+        <v>6612</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>130168</v>
+        <v>7442</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
-        <v>422</v>
+        <v>25</v>
       </c>
       <c r="N14" s="7">
-        <v>269501</v>
+        <v>14054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4413,13 @@
         <v>145945</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>230</v>
@@ -4371,13 +4428,13 @@
         <v>137610</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>447</v>
@@ -4386,66 +4443,66 @@
         <v>283555</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="D16" s="7">
-        <v>18397</v>
+        <v>163177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I16" s="7">
-        <v>12290</v>
+        <v>180358</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
-        <v>44</v>
+        <v>472</v>
       </c>
       <c r="N16" s="7">
-        <v>30687</v>
+        <v>343535</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,49 +4511,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>163177</v>
+        <v>18397</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H17" s="7">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>180358</v>
+        <v>12290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="N17" s="7">
-        <v>343535</v>
+        <v>30687</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4568,13 @@
         <v>181574</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>261</v>
@@ -4526,13 +4583,13 @@
         <v>192648</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>516</v>
@@ -4541,13 +4598,13 @@
         <v>374222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,49 +4615,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>60</v>
+        <v>896</v>
       </c>
       <c r="D19" s="7">
-        <v>39401</v>
+        <v>629659</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
-        <v>59</v>
+        <v>915</v>
       </c>
       <c r="I19" s="7">
-        <v>38478</v>
+        <v>608336</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>49</v>
+        <v>291</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
-        <v>119</v>
+        <v>1811</v>
       </c>
       <c r="N19" s="7">
-        <v>77879</v>
+        <v>1237994</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,49 +4666,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>896</v>
+        <v>60</v>
       </c>
       <c r="D20" s="7">
-        <v>629659</v>
+        <v>39401</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
-        <v>915</v>
+        <v>59</v>
       </c>
       <c r="I20" s="7">
-        <v>608336</v>
+        <v>38478</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>59</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
-        <v>1811</v>
+        <v>119</v>
       </c>
       <c r="N20" s="7">
-        <v>1237994</v>
+        <v>77879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4723,13 @@
         <v>669060</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>974</v>
@@ -4681,13 +4738,13 @@
         <v>646814</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1930</v>
@@ -4696,13 +4753,18 @@
         <v>1315873</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4723,8 +4785,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BD2D3C-6795-4DB4-8E4A-CC37917F0261}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E49BB49-4EAB-4378-89AC-5E29CED567CD}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4740,7 +4802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4841,49 +4903,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4670</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>293</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>294</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>9233</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,49 +4954,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>4670</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>4563</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>9233</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +5011,13 @@
         <v>4670</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4964,13 +5026,13 @@
         <v>4563</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4979,13 +5041,13 @@
         <v>9233</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,49 +5058,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>539</v>
+        <v>15346</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>1098</v>
+        <v>11239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>1638</v>
+        <v>26583</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>123</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,49 +5109,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>15346</v>
+        <v>539</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>306</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1098</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="7">
-        <v>19</v>
-      </c>
-      <c r="I8" s="7">
-        <v>11239</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>26583</v>
+        <v>1638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5166,13 @@
         <v>15885</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -5119,13 +5181,13 @@
         <v>12337</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -5134,66 +5196,66 @@
         <v>28221</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>2353</v>
+        <v>46265</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>2762</v>
+        <v>26333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="N10" s="7">
-        <v>5115</v>
+        <v>72598</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,49 +5264,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>46265</v>
+        <v>2353</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>26333</v>
+        <v>2762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>72598</v>
+        <v>5115</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5321,13 @@
         <v>48618</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>46</v>
@@ -5274,13 +5336,13 @@
         <v>29095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -5289,66 +5351,66 @@
         <v>77713</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>2395</v>
+        <v>27457</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>6305</v>
+        <v>19016</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>8699</v>
+        <v>46474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,49 +5419,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>27457</v>
+        <v>2395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>334</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>19016</v>
+        <v>6305</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>46474</v>
+        <v>8699</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5476,13 @@
         <v>29852</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>37</v>
@@ -5429,13 +5491,13 @@
         <v>25321</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>77</v>
@@ -5444,66 +5506,66 @@
         <v>55173</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>2505</v>
+        <v>24896</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>141</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>5157</v>
+        <v>23450</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="N16" s="7">
-        <v>7661</v>
+        <v>48347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,49 +5574,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>24896</v>
+        <v>2505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>23450</v>
+        <v>5157</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>48347</v>
+        <v>7661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5631,13 @@
         <v>27401</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -5584,13 +5646,13 @@
         <v>28607</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>83</v>
@@ -5599,13 +5661,13 @@
         <v>56008</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,49 +5678,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D19" s="7">
-        <v>7791</v>
+        <v>118634</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="H19" s="7">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="I19" s="7">
-        <v>15322</v>
+        <v>84601</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M19" s="7">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="N19" s="7">
-        <v>23113</v>
+        <v>203235</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,49 +5729,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>118634</v>
+        <v>7791</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>375</v>
       </c>
       <c r="H20" s="7">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I20" s="7">
-        <v>84601</v>
+        <v>15322</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="M20" s="7">
-        <v>307</v>
+        <v>34</v>
       </c>
       <c r="N20" s="7">
-        <v>203235</v>
+        <v>23113</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5786,13 @@
         <v>126425</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -5739,13 +5801,13 @@
         <v>99923</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>341</v>
@@ -5754,13 +5816,18 @@
         <v>226348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP18_E_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP18_E_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BDA1963-633D-48EA-863A-B4A5336F891B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E176AE93-B5B5-475F-B0D9-E74C3EBD35C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1DA117C-CB46-422B-A707-24447D96F352}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9EE4BDE5-1CBF-4190-8144-8C0BEE9FBF67}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="388">
   <si>
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,1039 +107,1057 @@
     <t>3,48%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>87,56%</t>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>95,63%</t>
   </si>
   <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>94,16%</t>
   </si>
   <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2016 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
     <t>90,86%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2015 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>96,79%</t>
@@ -1148,43 +1166,43 @@
     <t>84,67%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>10,29%</t>
+    <t>10,26%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2DD9DD-A7CC-4561-AF24-D8F5140CFC9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89E35B9-99F4-4187-88E5-A24422F18280}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1881,7 +1899,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>136</v>
@@ -1890,13 +1908,13 @@
         <v>91159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
         <v>284</v>
@@ -1905,13 +1923,13 @@
         <v>188430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1944,13 @@
         <v>7519</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1941,13 +1959,13 @@
         <v>4166</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -1956,13 +1974,13 @@
         <v>11685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,7 +2036,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2030,13 +2048,13 @@
         <v>165616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>242</v>
@@ -2045,13 +2063,13 @@
         <v>151234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
         <v>494</v>
@@ -2060,13 +2078,13 @@
         <v>316849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,13 +2099,13 @@
         <v>11619</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -2096,13 +2114,13 @@
         <v>9660</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -2111,10 +2129,10 @@
         <v>21279</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>57</v>
@@ -2346,7 +2364,7 @@
         <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="H16" s="7">
         <v>233</v>
@@ -2355,13 +2373,13 @@
         <v>178219</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>477</v>
@@ -2373,10 +2391,10 @@
         <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2409,13 @@
         <v>13155</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2406,13 +2424,13 @@
         <v>13337</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2421,13 +2439,13 @@
         <v>26492</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,13 +2513,13 @@
         <v>570635</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>820</v>
@@ -2510,13 +2528,13 @@
         <v>551087</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>1680</v>
@@ -2525,13 +2543,13 @@
         <v>1121722</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2564,13 @@
         <v>42691</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -2561,13 +2579,13 @@
         <v>37894</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -2576,13 +2594,13 @@
         <v>80585</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,7 +2656,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2659,7 +2677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA187D4-410B-4A73-BBC4-1705ED9707D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC384F1-059A-41EA-A470-DAF229E4669F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2676,7 +2694,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2786,7 +2804,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2798,10 +2816,10 @@
         <v>19654</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2813,10 +2831,10 @@
         <v>44108</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2840,7 +2858,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2849,13 +2867,13 @@
         <v>1849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2864,13 +2882,13 @@
         <v>1849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2956,13 @@
         <v>119669</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -2953,13 +2971,13 @@
         <v>102623</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>312</v>
@@ -2968,13 +2986,13 @@
         <v>222292</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +3007,13 @@
         <v>2138</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -3004,13 +3022,13 @@
         <v>6739</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -3019,13 +3037,13 @@
         <v>8877</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,7 +3099,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3093,13 +3111,13 @@
         <v>194412</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
         <v>292</v>
@@ -3108,13 +3126,13 @@
         <v>188695</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>573</v>
@@ -3123,13 +3141,13 @@
         <v>383107</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3162,13 @@
         <v>12541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -3159,13 +3177,13 @@
         <v>3952</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3174,13 +3192,13 @@
         <v>16493</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3266,13 @@
         <v>145119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
         <v>206</v>
@@ -3263,13 +3281,13 @@
         <v>132698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>428</v>
@@ -3278,13 +3296,13 @@
         <v>277818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3317,13 @@
         <v>11013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3314,13 +3332,13 @@
         <v>9902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -3329,13 +3347,13 @@
         <v>20914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3421,13 @@
         <v>190146</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>245</v>
@@ -3418,13 +3436,13 @@
         <v>187146</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>503</v>
@@ -3433,13 +3451,13 @@
         <v>377292</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3472,13 @@
         <v>12308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3469,13 +3487,13 @@
         <v>12756</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -3484,13 +3502,13 @@
         <v>25064</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3576,13 @@
         <v>673800</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
         <v>909</v>
@@ -3573,13 +3591,13 @@
         <v>630816</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>1866</v>
@@ -3588,13 +3606,13 @@
         <v>1304616</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3627,13 @@
         <v>38000</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -3624,13 +3642,13 @@
         <v>35198</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -3639,13 +3657,13 @@
         <v>73198</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3719,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3722,7 +3740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37302B20-D96C-4C5C-8597-57C826AB288C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3332D795-5164-401A-B397-A330A3A64A10}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3739,7 +3757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3846,10 +3864,10 @@
         <v>24502</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -3861,10 +3879,10 @@
         <v>19811</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -3876,13 +3894,13 @@
         <v>44314</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3915,13 @@
         <v>1072</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3912,13 +3930,13 @@
         <v>1036</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3927,13 +3945,13 @@
         <v>2107</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +4019,13 @@
         <v>103094</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>139</v>
@@ -4016,13 +4034,13 @@
         <v>94987</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>278</v>
@@ -4031,13 +4049,13 @@
         <v>198081</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4070,13 @@
         <v>4399</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -4067,13 +4085,13 @@
         <v>6848</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -4082,13 +4100,13 @@
         <v>11247</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,7 +4162,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4156,13 +4174,13 @@
         <v>199554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>295</v>
@@ -4171,13 +4189,13 @@
         <v>183010</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>590</v>
@@ -4186,13 +4204,13 @@
         <v>382564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4225,13 @@
         <v>8920</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4222,13 +4240,13 @@
         <v>10863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -4237,13 +4255,13 @@
         <v>19783</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4329,13 @@
         <v>139333</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>217</v>
@@ -4326,13 +4344,13 @@
         <v>130168</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>422</v>
@@ -4341,13 +4359,13 @@
         <v>269501</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4380,13 @@
         <v>6612</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4377,13 +4395,13 @@
         <v>7442</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -4392,13 +4410,13 @@
         <v>14054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4484,13 @@
         <v>163177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>243</v>
@@ -4481,13 +4499,13 @@
         <v>180358</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>472</v>
@@ -4496,13 +4514,13 @@
         <v>343535</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4535,13 @@
         <v>18397</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -4532,13 +4550,13 @@
         <v>12290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4547,13 +4565,13 @@
         <v>30687</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4639,13 @@
         <v>629659</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>915</v>
@@ -4636,13 +4654,13 @@
         <v>608336</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="M19" s="7">
         <v>1811</v>
@@ -4651,13 +4669,13 @@
         <v>1237994</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4690,13 @@
         <v>39401</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -4687,13 +4705,13 @@
         <v>38478</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -4702,13 +4720,13 @@
         <v>77879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,7 +4782,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4785,7 +4803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E49BB49-4EAB-4378-89AC-5E29CED567CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636F6C01-D345-4B91-BA95-821892E2EC32}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4802,7 +4820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4912,7 +4930,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4927,7 +4945,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4942,7 +4960,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4966,7 +4984,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4981,7 +4999,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4996,7 +5014,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,10 +5082,10 @@
         <v>15346</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -5079,10 +5097,10 @@
         <v>11239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -5094,13 +5112,13 @@
         <v>26583</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5133,13 @@
         <v>539</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5130,13 +5148,13 @@
         <v>1098</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5145,13 +5163,13 @@
         <v>1638</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,7 +5225,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5219,13 +5237,13 @@
         <v>46265</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5234,13 +5252,13 @@
         <v>26333</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -5249,13 +5267,13 @@
         <v>72598</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,13 +5288,13 @@
         <v>2353</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5288,7 +5306,7 @@
         <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>332</v>
@@ -5380,7 +5398,7 @@
         <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -5389,13 +5407,13 @@
         <v>19016</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -5404,13 +5422,13 @@
         <v>46474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5443,13 @@
         <v>2395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -5440,13 +5458,13 @@
         <v>6305</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -5455,13 +5473,13 @@
         <v>8699</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5547,13 @@
         <v>24896</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>141</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -5544,13 +5562,13 @@
         <v>23450</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -5559,13 +5577,13 @@
         <v>48347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5598,13 @@
         <v>2505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>38</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5595,13 +5613,13 @@
         <v>5157</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5610,13 +5628,13 @@
         <v>7661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5702,13 @@
         <v>118634</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -5699,13 +5717,13 @@
         <v>84601</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M19" s="7">
         <v>307</v>
@@ -5714,13 +5732,13 @@
         <v>203235</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5753,13 @@
         <v>7791</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -5750,13 +5768,13 @@
         <v>15322</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -5765,13 +5783,13 @@
         <v>23113</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,7 +5845,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP18_E_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP18_E_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E176AE93-B5B5-475F-B0D9-E74C3EBD35C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0F2A965-6571-4EE4-AFD5-E7C0FA259218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9EE4BDE5-1CBF-4190-8144-8C0BEE9FBF67}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{994326D3-616E-453D-8E77-3DF2EE0CC4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="340">
   <si>
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1141 +68,997 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2016 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2016 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>14,98%</t>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
 </sst>
 </file>
@@ -1614,8 +1470,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89E35B9-99F4-4187-88E5-A24422F18280}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FE3FA5-9CE6-4370-8CB1-A653016F24CF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1732,10 +1588,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="D4" s="7">
-        <v>22186</v>
+        <v>110663</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1747,85 +1603,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="I4" s="7">
-        <v>19504</v>
+        <v>119458</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="N4" s="7">
-        <v>41690</v>
+        <v>230120</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4166</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7519</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>11685</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,153 +1690,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="D6" s="7">
-        <v>22186</v>
+        <v>114829</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="I6" s="7">
-        <v>19504</v>
+        <v>126977</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>354</v>
       </c>
       <c r="N6" s="7">
-        <v>41690</v>
+        <v>241805</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="D7" s="7">
-        <v>97271</v>
+        <v>151234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="I7" s="7">
-        <v>91159</v>
+        <v>165616</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>284</v>
+        <v>494</v>
       </c>
       <c r="N7" s="7">
-        <v>188430</v>
+        <v>316849</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
-        <v>10</v>
-      </c>
       <c r="D8" s="7">
-        <v>7519</v>
+        <v>9660</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7">
+        <v>11619</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="7">
         <v>34</v>
       </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4166</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="7">
-        <v>16</v>
-      </c>
       <c r="N8" s="7">
-        <v>11685</v>
+        <v>21279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,153 +1845,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="D9" s="7">
-        <v>104790</v>
+        <v>160894</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>142</v>
+        <v>270</v>
       </c>
       <c r="I9" s="7">
-        <v>95325</v>
+        <v>177235</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="N9" s="7">
-        <v>200115</v>
+        <v>338128</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="D10" s="7">
-        <v>165616</v>
+        <v>110971</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="I10" s="7">
-        <v>151234</v>
+        <v>120895</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>494</v>
+        <v>371</v>
       </c>
       <c r="N10" s="7">
-        <v>316849</v>
+        <v>231865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>11619</v>
+        <v>10732</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>9660</v>
+        <v>10398</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
       </c>
       <c r="N11" s="7">
-        <v>21279</v>
+        <v>21130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,153 +2000,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="D12" s="7">
-        <v>177235</v>
+        <v>121703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="I12" s="7">
-        <v>160894</v>
+        <v>131293</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>528</v>
+        <v>405</v>
       </c>
       <c r="N12" s="7">
-        <v>338128</v>
+        <v>252995</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="D13" s="7">
-        <v>120895</v>
+        <v>178219</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="I13" s="7">
-        <v>110971</v>
+        <v>164667</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="N13" s="7">
-        <v>231865</v>
+        <v>342886</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>10398</v>
+        <v>13337</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I14" s="7">
-        <v>10732</v>
+        <v>13155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N14" s="7">
-        <v>21130</v>
+        <v>26492</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,153 +2155,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="D15" s="7">
-        <v>131293</v>
+        <v>191556</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="I15" s="7">
-        <v>121703</v>
+        <v>177822</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>405</v>
+        <v>514</v>
       </c>
       <c r="N15" s="7">
-        <v>252995</v>
+        <v>369378</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>244</v>
+        <v>820</v>
       </c>
       <c r="D16" s="7">
-        <v>164667</v>
+        <v>551087</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>233</v>
+        <v>860</v>
       </c>
       <c r="I16" s="7">
-        <v>178219</v>
+        <v>570635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>477</v>
+        <v>1680</v>
       </c>
       <c r="N16" s="7">
-        <v>342886</v>
+        <v>1121722</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>13155</v>
+        <v>37894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I17" s="7">
-        <v>13337</v>
+        <v>42691</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="N17" s="7">
-        <v>26492</v>
+        <v>80585</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,217 +2310,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>263</v>
+        <v>878</v>
       </c>
       <c r="D18" s="7">
-        <v>177822</v>
+        <v>588981</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>251</v>
+        <v>923</v>
       </c>
       <c r="I18" s="7">
-        <v>191556</v>
+        <v>613326</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>514</v>
+        <v>1801</v>
       </c>
       <c r="N18" s="7">
-        <v>369378</v>
+        <v>1202307</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>860</v>
-      </c>
-      <c r="D19" s="7">
-        <v>570635</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="7">
-        <v>820</v>
-      </c>
-      <c r="I19" s="7">
-        <v>551087</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1680</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1121722</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>63</v>
-      </c>
-      <c r="D20" s="7">
-        <v>42691</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="7">
-        <v>58</v>
-      </c>
-      <c r="I20" s="7">
-        <v>37894</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="7">
-        <v>121</v>
-      </c>
-      <c r="N20" s="7">
-        <v>80585</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>923</v>
-      </c>
-      <c r="D21" s="7">
-        <v>613326</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>878</v>
-      </c>
-      <c r="I21" s="7">
-        <v>588981</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1801</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1202307</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2677,8 +2377,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC384F1-059A-41EA-A470-DAF229E4669F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29DDA6F-AC93-41AC-9064-A01BBB500239}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2694,7 +2394,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2795,100 +2495,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="D4" s="7">
-        <v>24454</v>
+        <v>122277</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="7">
+        <v>196</v>
+      </c>
+      <c r="I4" s="7">
+        <v>144123</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7">
-        <v>19654</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>362</v>
+      </c>
+      <c r="N4" s="7">
+        <v>266400</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>50</v>
-      </c>
-      <c r="N4" s="7">
-        <v>44108</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>8588</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2138</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1849</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>1849</v>
+        <v>10726</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,93 +2597,93 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="D6" s="7">
-        <v>24454</v>
+        <v>130865</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="I6" s="7">
-        <v>21503</v>
+        <v>146261</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>376</v>
       </c>
       <c r="N6" s="7">
-        <v>45957</v>
+        <v>277126</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="D7" s="7">
-        <v>119669</v>
+        <v>188695</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>281</v>
+      </c>
+      <c r="I7" s="7">
+        <v>194412</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="7">
-        <v>143</v>
-      </c>
-      <c r="I7" s="7">
-        <v>102623</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>124</v>
       </c>
       <c r="M7" s="7">
-        <v>312</v>
+        <v>573</v>
       </c>
       <c r="N7" s="7">
-        <v>222292</v>
+        <v>383107</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>125</v>
@@ -2998,13 +2698,13 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>2138</v>
+        <v>3952</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>128</v>
@@ -3013,28 +2713,28 @@
         <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="7">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7">
+        <v>12541</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="7">
-        <v>9</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6739</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N8" s="7">
-        <v>8877</v>
+        <v>16493</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>133</v>
@@ -3052,63 +2752,63 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>172</v>
+        <v>298</v>
       </c>
       <c r="D9" s="7">
-        <v>121807</v>
+        <v>192647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>152</v>
+        <v>299</v>
       </c>
       <c r="I9" s="7">
-        <v>109362</v>
+        <v>206953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>324</v>
+        <v>597</v>
       </c>
       <c r="N9" s="7">
-        <v>231169</v>
+        <v>399600</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="D10" s="7">
-        <v>194412</v>
+        <v>132698</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>136</v>
@@ -3117,88 +2817,88 @@
         <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="I10" s="7">
-        <v>188695</v>
+        <v>145119</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
-        <v>573</v>
+        <v>428</v>
       </c>
       <c r="N10" s="7">
-        <v>383107</v>
+        <v>277818</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
-        <v>18</v>
-      </c>
       <c r="D11" s="7">
-        <v>12541</v>
+        <v>9902</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>3952</v>
+        <v>11013</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N11" s="7">
-        <v>16493</v>
+        <v>20914</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,153 +2907,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>206953</v>
+        <v>142600</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="I12" s="7">
-        <v>192647</v>
+        <v>156132</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>597</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>399600</v>
+        <v>298732</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D13" s="7">
-        <v>145119</v>
+        <v>187146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="I13" s="7">
-        <v>132698</v>
+        <v>190146</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
-        <v>428</v>
+        <v>503</v>
       </c>
       <c r="N13" s="7">
-        <v>277818</v>
+        <v>377292</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>11013</v>
+        <v>12756</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>9902</v>
+        <v>12308</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N14" s="7">
-        <v>20914</v>
+        <v>25064</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,153 +3062,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="D15" s="7">
-        <v>156132</v>
+        <v>199902</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I15" s="7">
-        <v>142600</v>
+        <v>202454</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="N15" s="7">
-        <v>298732</v>
+        <v>402356</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>258</v>
+        <v>909</v>
       </c>
       <c r="D16" s="7">
-        <v>190146</v>
+        <v>630816</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>245</v>
+        <v>957</v>
       </c>
       <c r="I16" s="7">
-        <v>187146</v>
+        <v>673800</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>503</v>
+        <v>1866</v>
       </c>
       <c r="N16" s="7">
-        <v>377292</v>
+        <v>1304616</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7">
-        <v>12308</v>
+        <v>35198</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I17" s="7">
-        <v>12756</v>
+        <v>38000</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="N17" s="7">
-        <v>25064</v>
+        <v>73198</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,217 +3217,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>275</v>
+        <v>959</v>
       </c>
       <c r="D18" s="7">
-        <v>202454</v>
+        <v>666014</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>262</v>
+        <v>1012</v>
       </c>
       <c r="I18" s="7">
-        <v>199902</v>
+        <v>711800</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>537</v>
+        <v>1971</v>
       </c>
       <c r="N18" s="7">
-        <v>402356</v>
+        <v>1377814</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>957</v>
-      </c>
-      <c r="D19" s="7">
-        <v>673800</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="7">
-        <v>909</v>
-      </c>
-      <c r="I19" s="7">
-        <v>630816</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1866</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1304616</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>55</v>
-      </c>
-      <c r="D20" s="7">
-        <v>38000</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H20" s="7">
-        <v>50</v>
-      </c>
-      <c r="I20" s="7">
-        <v>35198</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" s="7">
-        <v>105</v>
-      </c>
-      <c r="N20" s="7">
-        <v>73198</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1012</v>
-      </c>
-      <c r="D21" s="7">
-        <v>711800</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>959</v>
-      </c>
-      <c r="I21" s="7">
-        <v>666014</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1971</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1377814</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3740,8 +3284,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3332D795-5164-401A-B397-A330A3A64A10}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05500F9F-80BE-411B-A97A-790C251BA47B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3757,7 +3301,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3858,100 +3402,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="D4" s="7">
-        <v>24502</v>
+        <v>114799</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="I4" s="7">
-        <v>19811</v>
+        <v>127596</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
-        <v>49</v>
+        <v>327</v>
       </c>
       <c r="N4" s="7">
-        <v>44314</v>
+        <v>242394</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>1072</v>
+        <v>7884</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>1036</v>
+        <v>5471</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>2107</v>
+        <v>13355</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,153 +3504,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>122683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="I6" s="7">
-        <v>20847</v>
+        <v>133067</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>346</v>
       </c>
       <c r="N6" s="7">
-        <v>46421</v>
+        <v>255749</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>139</v>
+        <v>295</v>
       </c>
       <c r="D7" s="7">
-        <v>103094</v>
+        <v>183010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>139</v>
+        <v>295</v>
       </c>
       <c r="I7" s="7">
-        <v>94987</v>
+        <v>199554</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
-        <v>278</v>
+        <v>590</v>
       </c>
       <c r="N7" s="7">
-        <v>198081</v>
+        <v>382564</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>4399</v>
+        <v>10863</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>6848</v>
+        <v>8920</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N8" s="7">
-        <v>11247</v>
+        <v>19783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,153 +3659,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>107493</v>
+        <v>193873</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>309</v>
       </c>
       <c r="I9" s="7">
-        <v>101835</v>
+        <v>208474</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>294</v>
+        <v>621</v>
       </c>
       <c r="N9" s="7">
-        <v>209328</v>
+        <v>402347</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="D10" s="7">
-        <v>199554</v>
+        <v>130168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="I10" s="7">
-        <v>183010</v>
+        <v>139333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
-        <v>590</v>
+        <v>422</v>
       </c>
       <c r="N10" s="7">
-        <v>382564</v>
+        <v>269501</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>8920</v>
+        <v>7442</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>10863</v>
+        <v>6612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>117</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N11" s="7">
-        <v>19783</v>
+        <v>14054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,153 +3814,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>208474</v>
+        <v>137610</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="I12" s="7">
-        <v>193873</v>
+        <v>145945</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>621</v>
+        <v>447</v>
       </c>
       <c r="N12" s="7">
-        <v>402347</v>
+        <v>283555</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="D13" s="7">
-        <v>139333</v>
+        <v>180358</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>130168</v>
+        <v>163177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="N13" s="7">
-        <v>269501</v>
+        <v>343535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>6612</v>
+        <v>12290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>7442</v>
+        <v>18397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>14054</v>
+        <v>30687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,153 +3969,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="D15" s="7">
-        <v>145945</v>
+        <v>192648</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="I15" s="7">
-        <v>137610</v>
+        <v>181574</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="N15" s="7">
-        <v>283555</v>
+        <v>374222</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>229</v>
+        <v>915</v>
       </c>
       <c r="D16" s="7">
-        <v>163177</v>
+        <v>608336</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="H16" s="7">
-        <v>243</v>
+        <v>896</v>
       </c>
       <c r="I16" s="7">
-        <v>180358</v>
+        <v>629659</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
-        <v>472</v>
+        <v>1811</v>
       </c>
       <c r="N16" s="7">
-        <v>343535</v>
+        <v>1237994</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7">
-        <v>18397</v>
+        <v>38478</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>274</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I17" s="7">
-        <v>12290</v>
+        <v>39401</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="N17" s="7">
-        <v>30687</v>
+        <v>77879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,217 +4124,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>974</v>
       </c>
       <c r="D18" s="7">
-        <v>181574</v>
+        <v>646814</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>261</v>
+        <v>956</v>
       </c>
       <c r="I18" s="7">
-        <v>192648</v>
+        <v>669060</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>516</v>
+        <v>1930</v>
       </c>
       <c r="N18" s="7">
-        <v>374222</v>
+        <v>1315873</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>896</v>
-      </c>
-      <c r="D19" s="7">
-        <v>629659</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H19" s="7">
-        <v>915</v>
-      </c>
-      <c r="I19" s="7">
-        <v>608336</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1811</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1237994</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>60</v>
-      </c>
-      <c r="D20" s="7">
-        <v>39401</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H20" s="7">
-        <v>59</v>
-      </c>
-      <c r="I20" s="7">
-        <v>38478</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M20" s="7">
-        <v>119</v>
-      </c>
-      <c r="N20" s="7">
-        <v>77879</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>956</v>
-      </c>
-      <c r="D21" s="7">
-        <v>669060</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>974</v>
-      </c>
-      <c r="I21" s="7">
-        <v>646814</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1930</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1315873</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4803,8 +4191,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636F6C01-D345-4B91-BA95-821892E2EC32}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4822B654-9BE0-48C3-BDB2-06E709150D4E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4820,7 +4208,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4921,100 +4309,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>4670</v>
+        <v>15870</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>4563</v>
+        <v>21131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>9233</v>
+        <v>37001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1184</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1719</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,153 +4411,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>4670</v>
+        <v>17054</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>4563</v>
+        <v>21666</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N6" s="7">
-        <v>9233</v>
+        <v>38720</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>15346</v>
+        <v>26224</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7">
-        <v>11239</v>
+        <v>47427</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N7" s="7">
-        <v>26583</v>
+        <v>73650</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>539</v>
+        <v>2751</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>1098</v>
+        <v>2309</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N8" s="7">
-        <v>1638</v>
+        <v>5061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,153 +4566,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7">
-        <v>15885</v>
+        <v>28975</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>12337</v>
+        <v>49736</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="N9" s="7">
-        <v>28221</v>
+        <v>78711</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>46265</v>
+        <v>19011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>26333</v>
+        <v>29045</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>293</v>
       </c>
       <c r="M10" s="7">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>72598</v>
+        <v>48057</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>2353</v>
+        <v>7225</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2762</v>
+        <v>2635</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>5115</v>
+        <v>9860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>334</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,153 +4721,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>48618</v>
+        <v>26236</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>29095</v>
+        <v>31680</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="N12" s="7">
-        <v>77713</v>
+        <v>57917</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7">
+        <v>23045</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" s="7">
         <v>37</v>
       </c>
-      <c r="D13" s="7">
-        <v>27457</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H13" s="7">
-        <v>30</v>
-      </c>
       <c r="I13" s="7">
-        <v>19016</v>
+        <v>25864</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>46474</v>
+        <v>48909</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>2395</v>
+        <v>5004</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>6305</v>
+        <v>2646</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>8699</v>
+        <v>7650</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,153 +4876,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>29852</v>
+        <v>28049</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I15" s="7">
-        <v>25321</v>
+        <v>28510</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N15" s="7">
-        <v>55173</v>
+        <v>56559</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="D16" s="7">
-        <v>24896</v>
+        <v>84150</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="I16" s="7">
-        <v>23450</v>
+        <v>123465</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
-        <v>71</v>
+        <v>307</v>
       </c>
       <c r="N16" s="7">
-        <v>48347</v>
+        <v>207615</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>2505</v>
+        <v>16164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7">
-        <v>5157</v>
+        <v>8127</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>7661</v>
+        <v>24291</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,217 +5031,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D18" s="7">
-        <v>27401</v>
+        <v>100314</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="I18" s="7">
-        <v>28607</v>
+        <v>131592</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="N18" s="7">
-        <v>56008</v>
+        <v>231906</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>176</v>
-      </c>
-      <c r="D19" s="7">
-        <v>118634</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H19" s="7">
-        <v>131</v>
-      </c>
-      <c r="I19" s="7">
-        <v>84601</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="M19" s="7">
-        <v>307</v>
-      </c>
-      <c r="N19" s="7">
-        <v>203235</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>12</v>
-      </c>
-      <c r="D20" s="7">
-        <v>7791</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H20" s="7">
-        <v>22</v>
-      </c>
-      <c r="I20" s="7">
-        <v>15322</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="M20" s="7">
-        <v>34</v>
-      </c>
-      <c r="N20" s="7">
-        <v>23113</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>188</v>
-      </c>
-      <c r="D21" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>153</v>
-      </c>
-      <c r="I21" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>341</v>
-      </c>
-      <c r="N21" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
